--- a/Sistema de filtrado de asistencia de guardias/eventos/test3.xlsx
+++ b/Sistema de filtrado de asistencia de guardias/eventos/test3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Nº</t>
   </si>
@@ -51,13 +51,16 @@
     <t>OBS</t>
   </si>
   <si>
-    <t>Evento 3</t>
-  </si>
-  <si>
     <t>Pablo Ramirez</t>
   </si>
   <si>
     <t>44444444-4</t>
+  </si>
+  <si>
+    <t>Evento Chile</t>
+  </si>
+  <si>
+    <t>Fecha 3</t>
   </si>
 </sst>
 </file>
@@ -93,8 +96,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -378,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -390,88 +396,104 @@
     <col min="4" max="4" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
         <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
